--- a/Lin_Rohner_lab4/Data_lab4A_stiction torque/backup_1.xlsx
+++ b/Lin_Rohner_lab4/Data_lab4A_stiction torque/backup_1.xlsx
@@ -52,10 +52,104 @@
           <t>Untitled</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Untitled 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Untitled 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Untitled 3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>-0.003550</v>
+        <v>0.000000</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.000007</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-0.656128</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.000000</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-0.004278</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-0.656128</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.000000</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-0.008563</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-0.656128</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.000000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-0.012848</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-0.656128</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.000000</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-0.017133</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-0.312621</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.343507</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.000000</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-0.021418</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.503061</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.815682</v>
       </c>
     </row>
   </sheetData>
